--- a/Code/Results/Cases/Case_3_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000593323898459</v>
+        <v>1.031589319445112</v>
       </c>
       <c r="D2">
-        <v>1.01962404156235</v>
+        <v>1.035522584672375</v>
       </c>
       <c r="E2">
-        <v>1.01561552083872</v>
+        <v>1.041374200652114</v>
       </c>
       <c r="F2">
-        <v>1.023613861602955</v>
+        <v>1.052929954337091</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047449380882671</v>
+        <v>1.035188598823858</v>
       </c>
       <c r="J2">
-        <v>1.022756303220096</v>
+        <v>1.036724212586162</v>
       </c>
       <c r="K2">
-        <v>1.030816588005309</v>
+        <v>1.038318947439617</v>
       </c>
       <c r="L2">
-        <v>1.02686151023131</v>
+        <v>1.044153896628837</v>
       </c>
       <c r="M2">
-        <v>1.034753735502145</v>
+        <v>1.055677326738416</v>
       </c>
       <c r="N2">
-        <v>1.024208734482456</v>
+        <v>1.038196479881963</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00541167243031</v>
+        <v>1.032594152160049</v>
       </c>
       <c r="D3">
-        <v>1.023238077975989</v>
+        <v>1.036278648432915</v>
       </c>
       <c r="E3">
-        <v>1.019767693673449</v>
+        <v>1.042293864788724</v>
       </c>
       <c r="F3">
-        <v>1.028413011481558</v>
+        <v>1.053999318308998</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048921436733022</v>
+        <v>1.035403917833929</v>
       </c>
       <c r="J3">
-        <v>1.025755889135884</v>
+        <v>1.037370702032726</v>
       </c>
       <c r="K3">
-        <v>1.033582012511104</v>
+        <v>1.038884565365507</v>
       </c>
       <c r="L3">
-        <v>1.030153739749986</v>
+        <v>1.044883889048167</v>
       </c>
       <c r="M3">
-        <v>1.038694805194405</v>
+        <v>1.056558976903543</v>
       </c>
       <c r="N3">
-        <v>1.027212580154302</v>
+        <v>1.038843887417695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008461258941967</v>
+        <v>1.033244448928516</v>
       </c>
       <c r="D4">
-        <v>1.025525318859215</v>
+        <v>1.036767540901947</v>
       </c>
       <c r="E4">
-        <v>1.022401487307635</v>
+        <v>1.042889414533445</v>
       </c>
       <c r="F4">
-        <v>1.031456464502471</v>
+        <v>1.054691808538576</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049838543464302</v>
+        <v>1.035541451957519</v>
       </c>
       <c r="J4">
-        <v>1.02765097365678</v>
+        <v>1.037788545945816</v>
       </c>
       <c r="K4">
-        <v>1.035325135393017</v>
+        <v>1.039249566115976</v>
       </c>
       <c r="L4">
-        <v>1.032236859828713</v>
+        <v>1.045356080556332</v>
       </c>
       <c r="M4">
-        <v>1.041189501341287</v>
+        <v>1.057129404789825</v>
       </c>
       <c r="N4">
-        <v>1.029110355912587</v>
+        <v>1.039262324717069</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009727591109579</v>
+        <v>1.033517857992554</v>
       </c>
       <c r="D5">
-        <v>1.026474995862275</v>
+        <v>1.036972990989057</v>
       </c>
       <c r="E5">
-        <v>1.023496520627807</v>
+        <v>1.043139894344749</v>
       </c>
       <c r="F5">
-        <v>1.032721659804568</v>
+        <v>1.05498306013602</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0502158180461</v>
+        <v>1.03559884187697</v>
       </c>
       <c r="J5">
-        <v>1.02843705178122</v>
+        <v>1.037964092533779</v>
       </c>
       <c r="K5">
-        <v>1.036047194613839</v>
+        <v>1.039402774260624</v>
       </c>
       <c r="L5">
-        <v>1.03310169427418</v>
+        <v>1.045554550389553</v>
       </c>
       <c r="M5">
-        <v>1.042225459494396</v>
+        <v>1.05736919799224</v>
       </c>
       <c r="N5">
-        <v>1.029897550358128</v>
+        <v>1.039438120601322</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009939309634316</v>
+        <v>1.033563765993563</v>
       </c>
       <c r="D6">
-        <v>1.026633765397702</v>
+        <v>1.037007482224771</v>
       </c>
       <c r="E6">
-        <v>1.023679678271402</v>
+        <v>1.043181957476648</v>
       </c>
       <c r="F6">
-        <v>1.032933270204236</v>
+        <v>1.055031970089842</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050278684359033</v>
+        <v>1.035608452700735</v>
       </c>
       <c r="J6">
-        <v>1.028568425391876</v>
+        <v>1.037993560818708</v>
       </c>
       <c r="K6">
-        <v>1.036167810508359</v>
+        <v>1.039428484594915</v>
       </c>
       <c r="L6">
-        <v>1.03324627484445</v>
+        <v>1.0455878720155</v>
       </c>
       <c r="M6">
-        <v>1.042398663045872</v>
+        <v>1.057409459447044</v>
       </c>
       <c r="N6">
-        <v>1.03002911053438</v>
+        <v>1.039467630734596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008478240689795</v>
+        <v>1.033248102138708</v>
       </c>
       <c r="D7">
-        <v>1.025538054654187</v>
+        <v>1.036770286452867</v>
       </c>
       <c r="E7">
-        <v>1.022416166594945</v>
+        <v>1.042892761022928</v>
       </c>
       <c r="F7">
-        <v>1.031473425476069</v>
+        <v>1.054695699751748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049843616891043</v>
+        <v>1.035542220492414</v>
       </c>
       <c r="J7">
-        <v>1.027661518518628</v>
+        <v>1.037790892060473</v>
       </c>
       <c r="K7">
-        <v>1.035334825394512</v>
+        <v>1.039251614227463</v>
       </c>
       <c r="L7">
-        <v>1.0322484581609</v>
+        <v>1.045358732675832</v>
       </c>
       <c r="M7">
-        <v>1.041203393615748</v>
+        <v>1.057132608976808</v>
       </c>
       <c r="N7">
-        <v>1.029120915749348</v>
+        <v>1.039264674163478</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002236211180683</v>
+        <v>1.031928885891911</v>
       </c>
       <c r="D8">
-        <v>1.020856286908302</v>
+        <v>1.035778167977325</v>
       </c>
       <c r="E8">
-        <v>1.017030013643835</v>
+        <v>1.041684908604092</v>
       </c>
       <c r="F8">
-        <v>1.025248918389856</v>
+        <v>1.053291238662475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047954325706602</v>
+        <v>1.035261737572611</v>
       </c>
       <c r="J8">
-        <v>1.023779743975532</v>
+        <v>1.036942795355549</v>
       </c>
       <c r="K8">
-        <v>1.03176096730986</v>
+        <v>1.038510305610685</v>
       </c>
       <c r="L8">
-        <v>1.027984139816179</v>
+        <v>1.044400634252387</v>
       </c>
       <c r="M8">
-        <v>1.036097402573906</v>
+        <v>1.055975296325919</v>
       </c>
       <c r="N8">
-        <v>1.025233628641155</v>
+        <v>1.038415373063955</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9906851261460249</v>
+        <v>1.029605058909363</v>
       </c>
       <c r="D9">
-        <v>1.012194633319792</v>
+        <v>1.034027433674783</v>
       </c>
       <c r="E9">
-        <v>1.007111480480835</v>
+        <v>1.039560116821161</v>
       </c>
       <c r="F9">
-        <v>1.013780002553161</v>
+        <v>1.050820563553192</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044344320781647</v>
+        <v>1.034753790292194</v>
       </c>
       <c r="J9">
-        <v>1.01657115964321</v>
+        <v>1.035444704159078</v>
       </c>
       <c r="K9">
-        <v>1.02509291159567</v>
+        <v>1.037196459673028</v>
       </c>
       <c r="L9">
-        <v>1.020090223021423</v>
+        <v>1.042711124609655</v>
       </c>
       <c r="M9">
-        <v>1.026653396219968</v>
+        <v>1.053935540797723</v>
       </c>
       <c r="N9">
-        <v>1.018014807292246</v>
+        <v>1.036915154406151</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825691958220558</v>
+        <v>1.028056394136447</v>
       </c>
       <c r="D10">
-        <v>1.006114877682369</v>
+        <v>1.032858656056731</v>
       </c>
       <c r="E10">
-        <v>1.000178842606039</v>
+        <v>1.038146050733157</v>
       </c>
       <c r="F10">
-        <v>1.005758126624776</v>
+        <v>1.049176281095294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041734386332784</v>
+        <v>1.03440597520213</v>
       </c>
       <c r="J10">
-        <v>1.011491875062668</v>
+        <v>1.034443562781163</v>
       </c>
       <c r="K10">
-        <v>1.020374596910099</v>
+        <v>1.036315515956699</v>
       </c>
       <c r="L10">
-        <v>1.014544868745008</v>
+        <v>1.041583999203535</v>
       </c>
       <c r="M10">
-        <v>1.020024188816444</v>
+        <v>1.052575453623614</v>
       </c>
       <c r="N10">
-        <v>1.012928309544997</v>
+        <v>1.035912591292647</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9789456004960909</v>
+        <v>1.027385938637063</v>
       </c>
       <c r="D11">
-        <v>1.003402913652818</v>
+        <v>1.032352189066475</v>
       </c>
       <c r="E11">
-        <v>0.9970929417075165</v>
+        <v>1.037534336675717</v>
       </c>
       <c r="F11">
-        <v>1.00218578053123</v>
+        <v>1.048464967256927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040552504528531</v>
+        <v>1.034253194710723</v>
       </c>
       <c r="J11">
-        <v>1.009221277500156</v>
+        <v>1.034009490912659</v>
       </c>
       <c r="K11">
-        <v>1.018260940074281</v>
+        <v>1.035932868552277</v>
       </c>
       <c r="L11">
-        <v>1.012069889914584</v>
+        <v>1.041095761493912</v>
       </c>
       <c r="M11">
-        <v>1.017066593620093</v>
+        <v>1.051986467977575</v>
       </c>
       <c r="N11">
-        <v>1.010654487473505</v>
+        <v>1.035477902992301</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9775822015348692</v>
+        <v>1.027136920697609</v>
       </c>
       <c r="D12">
-        <v>1.002382998607186</v>
+        <v>1.032164008632502</v>
       </c>
       <c r="E12">
-        <v>0.995933333619241</v>
+        <v>1.037307207455477</v>
       </c>
       <c r="F12">
-        <v>1.000843113628785</v>
+        <v>1.048200854903179</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040105395263165</v>
+        <v>1.034196118957356</v>
       </c>
       <c r="J12">
-        <v>1.008366587208442</v>
+        <v>1.033848171905701</v>
       </c>
       <c r="K12">
-        <v>1.017464686088469</v>
+        <v>1.035790557601079</v>
       </c>
       <c r="L12">
-        <v>1.011138861470795</v>
+        <v>1.040914380920621</v>
       </c>
       <c r="M12">
-        <v>1.015954178718573</v>
+        <v>1.051767684062822</v>
       </c>
       <c r="N12">
-        <v>1.009798583423542</v>
+        <v>1.03531635489385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.977875461219568</v>
+        <v>1.027190335026178</v>
       </c>
       <c r="D13">
-        <v>1.002602353572443</v>
+        <v>1.032204376497165</v>
       </c>
       <c r="E13">
-        <v>0.9961826909425311</v>
+        <v>1.037355923424603</v>
       </c>
       <c r="F13">
-        <v>1.001131847509283</v>
+        <v>1.048257503309895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040201674081452</v>
+        <v>1.034208376658793</v>
       </c>
       <c r="J13">
-        <v>1.008550441968035</v>
+        <v>1.033882779237813</v>
       </c>
       <c r="K13">
-        <v>1.017635998883385</v>
+        <v>1.035821091859332</v>
       </c>
       <c r="L13">
-        <v>1.011339110713089</v>
+        <v>1.040953288899861</v>
       </c>
       <c r="M13">
-        <v>1.016193434039883</v>
+        <v>1.051814614329391</v>
       </c>
       <c r="N13">
-        <v>1.009982699277982</v>
+        <v>1.035351011372343</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9788332632704139</v>
+        <v>1.027365354346773</v>
       </c>
       <c r="D14">
-        <v>1.003318867491727</v>
+        <v>1.032336635151575</v>
       </c>
       <c r="E14">
-        <v>0.9969973653259961</v>
+        <v>1.037515560292328</v>
       </c>
       <c r="F14">
-        <v>1.002075121725647</v>
+        <v>1.048443133578934</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040515713683786</v>
+        <v>1.034248483464884</v>
       </c>
       <c r="J14">
-        <v>1.009150862387563</v>
+        <v>1.033996157972775</v>
       </c>
       <c r="K14">
-        <v>1.01819535216054</v>
+        <v>1.035921108726197</v>
       </c>
       <c r="L14">
-        <v>1.011993173487275</v>
+        <v>1.041080769074516</v>
       </c>
       <c r="M14">
-        <v>1.016974927748505</v>
+        <v>1.051968383400234</v>
       </c>
       <c r="N14">
-        <v>1.010583972363375</v>
+        <v>1.035464551118113</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9794210550534882</v>
+        <v>1.027473192057601</v>
       </c>
       <c r="D15">
-        <v>1.00375864953592</v>
+        <v>1.032418116672147</v>
       </c>
       <c r="E15">
-        <v>0.997497518633793</v>
+        <v>1.037613929595581</v>
       </c>
       <c r="F15">
-        <v>1.002654190768675</v>
+        <v>1.048557519946973</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040708119490149</v>
+        <v>1.034273151368402</v>
       </c>
       <c r="J15">
-        <v>1.009519286957775</v>
+        <v>1.034066003050696</v>
       </c>
       <c r="K15">
-        <v>1.018538494091813</v>
+        <v>1.035982708760332</v>
       </c>
       <c r="L15">
-        <v>1.012394591873969</v>
+        <v>1.041159310206609</v>
       </c>
       <c r="M15">
-        <v>1.017454575617916</v>
+        <v>1.052063124496776</v>
       </c>
       <c r="N15">
-        <v>1.010952920138736</v>
+        <v>1.035534495384056</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9828072940250996</v>
+        <v>1.028100892732432</v>
       </c>
       <c r="D16">
-        <v>1.006293135325273</v>
+        <v>1.032892260698047</v>
       </c>
       <c r="E16">
-        <v>1.000381811218546</v>
+        <v>1.038186660575308</v>
       </c>
       <c r="F16">
-        <v>1.005993054842747</v>
+        <v>1.049223502831795</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041811705843204</v>
+        <v>1.034416068963653</v>
       </c>
       <c r="J16">
-        <v>1.011641017229888</v>
+        <v>1.034472358704875</v>
       </c>
       <c r="K16">
-        <v>1.020513340697745</v>
+        <v>1.036340885918392</v>
       </c>
       <c r="L16">
-        <v>1.014707517880739</v>
+        <v>1.041616398072894</v>
       </c>
       <c r="M16">
-        <v>1.020218577092823</v>
+        <v>1.052614541456579</v>
       </c>
       <c r="N16">
-        <v>1.013077663511201</v>
+        <v>1.035941428109874</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9849014315776086</v>
+        <v>1.028494666717268</v>
       </c>
       <c r="D17">
-        <v>1.007861257124403</v>
+        <v>1.033189577954865</v>
       </c>
       <c r="E17">
-        <v>1.002168048836617</v>
+        <v>1.038546076867259</v>
       </c>
       <c r="F17">
-        <v>1.008060370312566</v>
+        <v>1.049641436327734</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04248987357364</v>
+        <v>1.034505135554425</v>
       </c>
       <c r="J17">
-        <v>1.01295245065893</v>
+        <v>1.034727102272992</v>
       </c>
       <c r="K17">
-        <v>1.021732839851006</v>
+        <v>1.036565241994815</v>
       </c>
       <c r="L17">
-        <v>1.016138170791365</v>
+        <v>1.041903068005353</v>
       </c>
       <c r="M17">
-        <v>1.02192853278601</v>
+        <v>1.052960415277017</v>
       </c>
       <c r="N17">
-        <v>1.014390959326136</v>
+        <v>1.036196533443077</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9861124285290416</v>
+        <v>1.028724360627731</v>
       </c>
       <c r="D18">
-        <v>1.008768302031489</v>
+        <v>1.033362961498697</v>
       </c>
       <c r="E18">
-        <v>1.003201877132662</v>
+        <v>1.038755774799756</v>
       </c>
       <c r="F18">
-        <v>1.009256729386971</v>
+        <v>1.04988527460935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042880466482067</v>
+        <v>1.034556876779738</v>
       </c>
       <c r="J18">
-        <v>1.013710556537726</v>
+        <v>1.034875634761761</v>
       </c>
       <c r="K18">
-        <v>1.022437380345063</v>
+        <v>1.036695989957506</v>
       </c>
       <c r="L18">
-        <v>1.01696556994337</v>
+        <v>1.042070259850478</v>
       </c>
       <c r="M18">
-        <v>1.022917569971031</v>
+        <v>1.053162151910607</v>
       </c>
       <c r="N18">
-        <v>1.015150141802236</v>
+        <v>1.036345276865017</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9865235992247606</v>
+        <v>1.0288026823838</v>
       </c>
       <c r="D19">
-        <v>1.009076308193045</v>
+        <v>1.033422074576174</v>
       </c>
       <c r="E19">
-        <v>1.003553041457935</v>
+        <v>1.038827285939268</v>
       </c>
       <c r="F19">
-        <v>1.009663076440976</v>
+        <v>1.049968428131002</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043012815006841</v>
+        <v>1.034574483601335</v>
       </c>
       <c r="J19">
-        <v>1.013967909487681</v>
+        <v>1.034926271139549</v>
       </c>
       <c r="K19">
-        <v>1.02267647745044</v>
+        <v>1.036740552086915</v>
       </c>
       <c r="L19">
-        <v>1.017246509525344</v>
+        <v>1.042127264903448</v>
       </c>
       <c r="M19">
-        <v>1.023253411342391</v>
+        <v>1.053230937906936</v>
       </c>
       <c r="N19">
-        <v>1.015407860222898</v>
+        <v>1.036395985152269</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.984677841254291</v>
+        <v>1.028452417232058</v>
       </c>
       <c r="D20">
-        <v>1.007693804544926</v>
+        <v>1.033157682404727</v>
       </c>
       <c r="E20">
-        <v>1.001977240691477</v>
+        <v>1.038507509053184</v>
       </c>
       <c r="F20">
-        <v>1.007839552793043</v>
+        <v>1.049596589318953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04241762905034</v>
+        <v>1.034495601250994</v>
       </c>
       <c r="J20">
-        <v>1.012812456931355</v>
+        <v>1.034699776397789</v>
       </c>
       <c r="K20">
-        <v>1.021602703450819</v>
+        <v>1.036541182616526</v>
       </c>
       <c r="L20">
-        <v>1.015985411578638</v>
+        <v>1.041872312880392</v>
       </c>
       <c r="M20">
-        <v>1.021745939720269</v>
+        <v>1.052923306877223</v>
       </c>
       <c r="N20">
-        <v>1.01425076679141</v>
+        <v>1.036169168761997</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9785517041965897</v>
+        <v>1.027313814991698</v>
       </c>
       <c r="D21">
-        <v>1.003108224430983</v>
+        <v>1.032297689814728</v>
       </c>
       <c r="E21">
-        <v>0.9967578392791427</v>
+        <v>1.037468548762601</v>
       </c>
       <c r="F21">
-        <v>1.001797792945089</v>
+        <v>1.048388467292312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040423463375767</v>
+        <v>1.034236682013898</v>
       </c>
       <c r="J21">
-        <v>1.008974370122016</v>
+        <v>1.033962773115104</v>
       </c>
       <c r="K21">
-        <v>1.018030948852482</v>
+        <v>1.035891661179382</v>
       </c>
       <c r="L21">
-        <v>1.01180089682951</v>
+        <v>1.041043230091883</v>
       </c>
       <c r="M21">
-        <v>1.016745185448018</v>
+        <v>1.051923102470476</v>
       </c>
       <c r="N21">
-        <v>1.010407229458567</v>
+        <v>1.035431118850115</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.974598530905891</v>
+        <v>1.026598041026923</v>
       </c>
       <c r="D22">
-        <v>1.000152002041329</v>
+        <v>1.031756654498414</v>
       </c>
       <c r="E22">
-        <v>0.993398445977505</v>
+        <v>1.036815826195907</v>
       </c>
       <c r="F22">
-        <v>0.9979075478065198</v>
+        <v>1.04762945918823</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039122573077208</v>
+        <v>1.03407200166572</v>
       </c>
       <c r="J22">
-        <v>1.0064955716826</v>
+        <v>1.033498896069976</v>
       </c>
       <c r="K22">
-        <v>1.015720448342902</v>
+        <v>1.035482247829924</v>
       </c>
       <c r="L22">
-        <v>1.009101825207243</v>
+        <v>1.040521794819213</v>
       </c>
       <c r="M22">
-        <v>1.013520570862585</v>
+        <v>1.05129418575137</v>
       </c>
       <c r="N22">
-        <v>1.007924910841045</v>
+        <v>1.034966583046375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9767041544661498</v>
+        <v>1.026977475855501</v>
       </c>
       <c r="D23">
-        <v>1.001726307047019</v>
+        <v>1.032043497976542</v>
       </c>
       <c r="E23">
-        <v>0.9951869569926506</v>
+        <v>1.037161797954008</v>
       </c>
       <c r="F23">
-        <v>0.9999788343646829</v>
+        <v>1.048031768043997</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039816778814814</v>
+        <v>1.034159480625158</v>
       </c>
       <c r="J23">
-        <v>1.007816059829249</v>
+        <v>1.033744852743281</v>
       </c>
       <c r="K23">
-        <v>1.01695162229612</v>
+        <v>1.035699383365131</v>
       </c>
       <c r="L23">
-        <v>1.010539330108574</v>
+        <v>1.040798232354895</v>
       </c>
       <c r="M23">
-        <v>1.015237889344401</v>
+        <v>1.051627590858465</v>
       </c>
       <c r="N23">
-        <v>1.009247274232324</v>
+        <v>1.035212889006368</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9847789044034926</v>
+        <v>1.028471507917967</v>
       </c>
       <c r="D24">
-        <v>1.00776949264029</v>
+        <v>1.033172094743953</v>
       </c>
       <c r="E24">
-        <v>1.002063483513666</v>
+        <v>1.038524936013662</v>
       </c>
       <c r="F24">
-        <v>1.007939359928365</v>
+        <v>1.04961685355168</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042450288577919</v>
+        <v>1.034499910040581</v>
       </c>
       <c r="J24">
-        <v>1.01287573513788</v>
+        <v>1.034712123954848</v>
       </c>
       <c r="K24">
-        <v>1.021661527378506</v>
+        <v>1.036552054369698</v>
       </c>
       <c r="L24">
-        <v>1.016054458714321</v>
+        <v>1.041886209852717</v>
       </c>
       <c r="M24">
-        <v>1.021828471419703</v>
+        <v>1.05294007458337</v>
       </c>
       <c r="N24">
-        <v>1.014314134860246</v>
+        <v>1.036181533854003</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9937411074958095</v>
+        <v>1.030205727466834</v>
       </c>
       <c r="D25">
-        <v>1.014485485611355</v>
+        <v>1.034480330311816</v>
       </c>
       <c r="E25">
-        <v>1.009729559996174</v>
+        <v>1.040108995611398</v>
       </c>
       <c r="F25">
-        <v>1.016808196243737</v>
+        <v>1.051458795217254</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045312297385866</v>
+        <v>1.034886727534127</v>
       </c>
       <c r="J25">
-        <v>1.018480959997228</v>
+        <v>1.035832424369114</v>
       </c>
       <c r="K25">
-        <v>1.026863019038491</v>
+        <v>1.037537012725857</v>
       </c>
       <c r="L25">
-        <v>1.022178691571395</v>
+        <v>1.043148044239159</v>
       </c>
       <c r="M25">
-        <v>1.029151071927889</v>
+        <v>1.054462913069983</v>
       </c>
       <c r="N25">
-        <v>1.019927319781823</v>
+        <v>1.037303425223358</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_161/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_161/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031589319445112</v>
+        <v>1.00059332389846</v>
       </c>
       <c r="D2">
-        <v>1.035522584672375</v>
+        <v>1.019624041562351</v>
       </c>
       <c r="E2">
-        <v>1.041374200652114</v>
+        <v>1.01561552083872</v>
       </c>
       <c r="F2">
-        <v>1.052929954337091</v>
+        <v>1.023613861602955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035188598823858</v>
+        <v>1.047449380882672</v>
       </c>
       <c r="J2">
-        <v>1.036724212586162</v>
+        <v>1.022756303220097</v>
       </c>
       <c r="K2">
-        <v>1.038318947439617</v>
+        <v>1.030816588005309</v>
       </c>
       <c r="L2">
-        <v>1.044153896628837</v>
+        <v>1.026861510231311</v>
       </c>
       <c r="M2">
-        <v>1.055677326738416</v>
+        <v>1.034753735502146</v>
       </c>
       <c r="N2">
-        <v>1.038196479881963</v>
+        <v>1.024208734482457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032594152160049</v>
+        <v>1.00541167243031</v>
       </c>
       <c r="D3">
-        <v>1.036278648432915</v>
+        <v>1.023238077975988</v>
       </c>
       <c r="E3">
-        <v>1.042293864788724</v>
+        <v>1.019767693673448</v>
       </c>
       <c r="F3">
-        <v>1.053999318308998</v>
+        <v>1.028413011481557</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035403917833929</v>
+        <v>1.048921436733022</v>
       </c>
       <c r="J3">
-        <v>1.037370702032726</v>
+        <v>1.025755889135884</v>
       </c>
       <c r="K3">
-        <v>1.038884565365507</v>
+        <v>1.033582012511103</v>
       </c>
       <c r="L3">
-        <v>1.044883889048167</v>
+        <v>1.030153739749986</v>
       </c>
       <c r="M3">
-        <v>1.056558976903543</v>
+        <v>1.038694805194404</v>
       </c>
       <c r="N3">
-        <v>1.038843887417695</v>
+        <v>1.027212580154302</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033244448928516</v>
+        <v>1.008461258941966</v>
       </c>
       <c r="D4">
-        <v>1.036767540901947</v>
+        <v>1.025525318859215</v>
       </c>
       <c r="E4">
-        <v>1.042889414533445</v>
+        <v>1.022401487307634</v>
       </c>
       <c r="F4">
-        <v>1.054691808538576</v>
+        <v>1.031456464502471</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035541451957519</v>
+        <v>1.049838543464301</v>
       </c>
       <c r="J4">
-        <v>1.037788545945816</v>
+        <v>1.02765097365678</v>
       </c>
       <c r="K4">
-        <v>1.039249566115976</v>
+        <v>1.035325135393016</v>
       </c>
       <c r="L4">
-        <v>1.045356080556332</v>
+        <v>1.032236859828713</v>
       </c>
       <c r="M4">
-        <v>1.057129404789825</v>
+        <v>1.041189501341287</v>
       </c>
       <c r="N4">
-        <v>1.039262324717069</v>
+        <v>1.029110355912587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033517857992554</v>
+        <v>1.00972759110958</v>
       </c>
       <c r="D5">
-        <v>1.036972990989057</v>
+        <v>1.026474995862276</v>
       </c>
       <c r="E5">
-        <v>1.043139894344749</v>
+        <v>1.023496520627807</v>
       </c>
       <c r="F5">
-        <v>1.05498306013602</v>
+        <v>1.032721659804569</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03559884187697</v>
+        <v>1.050215818046101</v>
       </c>
       <c r="J5">
-        <v>1.037964092533779</v>
+        <v>1.028437051781221</v>
       </c>
       <c r="K5">
-        <v>1.039402774260624</v>
+        <v>1.036047194613839</v>
       </c>
       <c r="L5">
-        <v>1.045554550389553</v>
+        <v>1.033101694274181</v>
       </c>
       <c r="M5">
-        <v>1.05736919799224</v>
+        <v>1.042225459494396</v>
       </c>
       <c r="N5">
-        <v>1.039438120601322</v>
+        <v>1.029897550358129</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033563765993563</v>
+        <v>1.009939309634316</v>
       </c>
       <c r="D6">
-        <v>1.037007482224771</v>
+        <v>1.026633765397702</v>
       </c>
       <c r="E6">
-        <v>1.043181957476648</v>
+        <v>1.023679678271402</v>
       </c>
       <c r="F6">
-        <v>1.055031970089842</v>
+        <v>1.032933270204237</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035608452700735</v>
+        <v>1.050278684359034</v>
       </c>
       <c r="J6">
-        <v>1.037993560818708</v>
+        <v>1.028568425391877</v>
       </c>
       <c r="K6">
-        <v>1.039428484594915</v>
+        <v>1.036167810508359</v>
       </c>
       <c r="L6">
-        <v>1.0455878720155</v>
+        <v>1.03324627484445</v>
       </c>
       <c r="M6">
-        <v>1.057409459447044</v>
+        <v>1.042398663045873</v>
       </c>
       <c r="N6">
-        <v>1.039467630734596</v>
+        <v>1.03002911053438</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033248102138708</v>
+        <v>1.008478240689795</v>
       </c>
       <c r="D7">
-        <v>1.036770286452867</v>
+        <v>1.025538054654186</v>
       </c>
       <c r="E7">
-        <v>1.042892761022928</v>
+        <v>1.022416166594945</v>
       </c>
       <c r="F7">
-        <v>1.054695699751748</v>
+        <v>1.031473425476069</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035542220492414</v>
+        <v>1.049843616891042</v>
       </c>
       <c r="J7">
-        <v>1.037790892060473</v>
+        <v>1.027661518518627</v>
       </c>
       <c r="K7">
-        <v>1.039251614227463</v>
+        <v>1.035334825394512</v>
       </c>
       <c r="L7">
-        <v>1.045358732675832</v>
+        <v>1.0322484581609</v>
       </c>
       <c r="M7">
-        <v>1.057132608976808</v>
+        <v>1.041203393615747</v>
       </c>
       <c r="N7">
-        <v>1.039264674163478</v>
+        <v>1.029120915749348</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031928885891911</v>
+        <v>1.002236211180683</v>
       </c>
       <c r="D8">
-        <v>1.035778167977325</v>
+        <v>1.020856286908302</v>
       </c>
       <c r="E8">
-        <v>1.041684908604092</v>
+        <v>1.017030013643835</v>
       </c>
       <c r="F8">
-        <v>1.053291238662475</v>
+        <v>1.025248918389857</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035261737572611</v>
+        <v>1.047954325706602</v>
       </c>
       <c r="J8">
-        <v>1.036942795355549</v>
+        <v>1.023779743975533</v>
       </c>
       <c r="K8">
-        <v>1.038510305610685</v>
+        <v>1.031760967309861</v>
       </c>
       <c r="L8">
-        <v>1.044400634252387</v>
+        <v>1.02798413981618</v>
       </c>
       <c r="M8">
-        <v>1.055975296325919</v>
+        <v>1.036097402573907</v>
       </c>
       <c r="N8">
-        <v>1.038415373063955</v>
+        <v>1.025233628641155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029605058909363</v>
+        <v>0.9906851261460253</v>
       </c>
       <c r="D9">
-        <v>1.034027433674783</v>
+        <v>1.012194633319793</v>
       </c>
       <c r="E9">
-        <v>1.039560116821161</v>
+        <v>1.007111480480835</v>
       </c>
       <c r="F9">
-        <v>1.050820563553192</v>
+        <v>1.013780002553162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034753790292194</v>
+        <v>1.044344320781647</v>
       </c>
       <c r="J9">
-        <v>1.035444704159078</v>
+        <v>1.016571159643211</v>
       </c>
       <c r="K9">
-        <v>1.037196459673028</v>
+        <v>1.025092911595671</v>
       </c>
       <c r="L9">
-        <v>1.042711124609655</v>
+        <v>1.020090223021423</v>
       </c>
       <c r="M9">
-        <v>1.053935540797723</v>
+        <v>1.026653396219969</v>
       </c>
       <c r="N9">
-        <v>1.036915154406151</v>
+        <v>1.018014807292246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028056394136447</v>
+        <v>0.9825691958220562</v>
       </c>
       <c r="D10">
-        <v>1.032858656056731</v>
+        <v>1.006114877682369</v>
       </c>
       <c r="E10">
-        <v>1.038146050733157</v>
+        <v>1.000178842606039</v>
       </c>
       <c r="F10">
-        <v>1.049176281095294</v>
+        <v>1.005758126624777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03440597520213</v>
+        <v>1.041734386332784</v>
       </c>
       <c r="J10">
-        <v>1.034443562781163</v>
+        <v>1.011491875062668</v>
       </c>
       <c r="K10">
-        <v>1.036315515956699</v>
+        <v>1.0203745969101</v>
       </c>
       <c r="L10">
-        <v>1.041583999203535</v>
+        <v>1.014544868745008</v>
       </c>
       <c r="M10">
-        <v>1.052575453623614</v>
+        <v>1.020024188816444</v>
       </c>
       <c r="N10">
-        <v>1.035912591292647</v>
+        <v>1.012928309544997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027385938637063</v>
+        <v>0.9789456004960908</v>
       </c>
       <c r="D11">
-        <v>1.032352189066475</v>
+        <v>1.003402913652818</v>
       </c>
       <c r="E11">
-        <v>1.037534336675717</v>
+        <v>0.9970929417075162</v>
       </c>
       <c r="F11">
-        <v>1.048464967256927</v>
+        <v>1.00218578053123</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034253194710723</v>
+        <v>1.040552504528531</v>
       </c>
       <c r="J11">
-        <v>1.034009490912659</v>
+        <v>1.009221277500156</v>
       </c>
       <c r="K11">
-        <v>1.035932868552277</v>
+        <v>1.018260940074281</v>
       </c>
       <c r="L11">
-        <v>1.041095761493912</v>
+        <v>1.012069889914584</v>
       </c>
       <c r="M11">
-        <v>1.051986467977575</v>
+        <v>1.017066593620093</v>
       </c>
       <c r="N11">
-        <v>1.035477902992301</v>
+        <v>1.010654487473505</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027136920697609</v>
+        <v>0.9775822015348685</v>
       </c>
       <c r="D12">
-        <v>1.032164008632502</v>
+        <v>1.002382998607185</v>
       </c>
       <c r="E12">
-        <v>1.037307207455477</v>
+        <v>0.9959333336192405</v>
       </c>
       <c r="F12">
-        <v>1.048200854903179</v>
+        <v>1.000843113628785</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034196118957356</v>
+        <v>1.040105395263164</v>
       </c>
       <c r="J12">
-        <v>1.033848171905701</v>
+        <v>1.008366587208442</v>
       </c>
       <c r="K12">
-        <v>1.035790557601079</v>
+        <v>1.017464686088468</v>
       </c>
       <c r="L12">
-        <v>1.040914380920621</v>
+        <v>1.011138861470795</v>
       </c>
       <c r="M12">
-        <v>1.051767684062822</v>
+        <v>1.015954178718572</v>
       </c>
       <c r="N12">
-        <v>1.03531635489385</v>
+        <v>1.009798583423542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027190335026178</v>
+        <v>0.9778754612195679</v>
       </c>
       <c r="D13">
-        <v>1.032204376497165</v>
+        <v>1.002602353572443</v>
       </c>
       <c r="E13">
-        <v>1.037355923424603</v>
+        <v>0.996182690942531</v>
       </c>
       <c r="F13">
-        <v>1.048257503309895</v>
+        <v>1.001131847509283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034208376658793</v>
+        <v>1.040201674081452</v>
       </c>
       <c r="J13">
-        <v>1.033882779237813</v>
+        <v>1.008550441968035</v>
       </c>
       <c r="K13">
-        <v>1.035821091859332</v>
+        <v>1.017635998883385</v>
       </c>
       <c r="L13">
-        <v>1.040953288899861</v>
+        <v>1.011339110713088</v>
       </c>
       <c r="M13">
-        <v>1.051814614329391</v>
+        <v>1.016193434039883</v>
       </c>
       <c r="N13">
-        <v>1.035351011372343</v>
+        <v>1.009982699277982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027365354346773</v>
+        <v>0.978833263270414</v>
       </c>
       <c r="D14">
-        <v>1.032336635151575</v>
+        <v>1.003318867491728</v>
       </c>
       <c r="E14">
-        <v>1.037515560292328</v>
+        <v>0.996997365325996</v>
       </c>
       <c r="F14">
-        <v>1.048443133578934</v>
+        <v>1.002075121725647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034248483464884</v>
+        <v>1.040515713683786</v>
       </c>
       <c r="J14">
-        <v>1.033996157972775</v>
+        <v>1.009150862387563</v>
       </c>
       <c r="K14">
-        <v>1.035921108726197</v>
+        <v>1.018195352160541</v>
       </c>
       <c r="L14">
-        <v>1.041080769074516</v>
+        <v>1.011993173487275</v>
       </c>
       <c r="M14">
-        <v>1.051968383400234</v>
+        <v>1.016974927748506</v>
       </c>
       <c r="N14">
-        <v>1.035464551118113</v>
+        <v>1.010583972363375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027473192057601</v>
+        <v>0.9794210550534871</v>
       </c>
       <c r="D15">
-        <v>1.032418116672147</v>
+        <v>1.003758649535919</v>
       </c>
       <c r="E15">
-        <v>1.037613929595581</v>
+        <v>0.9974975186337919</v>
       </c>
       <c r="F15">
-        <v>1.048557519946973</v>
+        <v>1.002654190768674</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034273151368402</v>
+        <v>1.040708119490149</v>
       </c>
       <c r="J15">
-        <v>1.034066003050696</v>
+        <v>1.009519286957774</v>
       </c>
       <c r="K15">
-        <v>1.035982708760332</v>
+        <v>1.018538494091812</v>
       </c>
       <c r="L15">
-        <v>1.041159310206609</v>
+        <v>1.012394591873967</v>
       </c>
       <c r="M15">
-        <v>1.052063124496776</v>
+        <v>1.017454575617915</v>
       </c>
       <c r="N15">
-        <v>1.035534495384056</v>
+        <v>1.010952920138735</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028100892732432</v>
+        <v>0.9828072940251004</v>
       </c>
       <c r="D16">
-        <v>1.032892260698047</v>
+        <v>1.006293135325274</v>
       </c>
       <c r="E16">
-        <v>1.038186660575308</v>
+        <v>1.000381811218547</v>
       </c>
       <c r="F16">
-        <v>1.049223502831795</v>
+        <v>1.005993054842748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034416068963653</v>
+        <v>1.041811705843205</v>
       </c>
       <c r="J16">
-        <v>1.034472358704875</v>
+        <v>1.011641017229888</v>
       </c>
       <c r="K16">
-        <v>1.036340885918392</v>
+        <v>1.020513340697746</v>
       </c>
       <c r="L16">
-        <v>1.041616398072894</v>
+        <v>1.014707517880739</v>
       </c>
       <c r="M16">
-        <v>1.052614541456579</v>
+        <v>1.020218577092824</v>
       </c>
       <c r="N16">
-        <v>1.035941428109874</v>
+        <v>1.013077663511202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028494666717268</v>
+        <v>0.984901431577609</v>
       </c>
       <c r="D17">
-        <v>1.033189577954865</v>
+        <v>1.007861257124403</v>
       </c>
       <c r="E17">
-        <v>1.038546076867259</v>
+        <v>1.002168048836618</v>
       </c>
       <c r="F17">
-        <v>1.049641436327734</v>
+        <v>1.008060370312566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034505135554425</v>
+        <v>1.04248987357364</v>
       </c>
       <c r="J17">
-        <v>1.034727102272992</v>
+        <v>1.01295245065893</v>
       </c>
       <c r="K17">
-        <v>1.036565241994815</v>
+        <v>1.021732839851006</v>
       </c>
       <c r="L17">
-        <v>1.041903068005353</v>
+        <v>1.016138170791366</v>
       </c>
       <c r="M17">
-        <v>1.052960415277017</v>
+        <v>1.02192853278601</v>
       </c>
       <c r="N17">
-        <v>1.036196533443077</v>
+        <v>1.014390959326136</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028724360627731</v>
+        <v>0.9861124285290404</v>
       </c>
       <c r="D18">
-        <v>1.033362961498697</v>
+        <v>1.008768302031487</v>
       </c>
       <c r="E18">
-        <v>1.038755774799756</v>
+        <v>1.003201877132661</v>
       </c>
       <c r="F18">
-        <v>1.04988527460935</v>
+        <v>1.009256729386971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034556876779738</v>
+        <v>1.042880466482067</v>
       </c>
       <c r="J18">
-        <v>1.034875634761761</v>
+        <v>1.013710556537725</v>
       </c>
       <c r="K18">
-        <v>1.036695989957506</v>
+        <v>1.022437380345061</v>
       </c>
       <c r="L18">
-        <v>1.042070259850478</v>
+        <v>1.016965569943369</v>
       </c>
       <c r="M18">
-        <v>1.053162151910607</v>
+        <v>1.02291756997103</v>
       </c>
       <c r="N18">
-        <v>1.036345276865017</v>
+        <v>1.015150141802235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0288026823838</v>
+        <v>0.9865235992247607</v>
       </c>
       <c r="D19">
-        <v>1.033422074576174</v>
+        <v>1.009076308193045</v>
       </c>
       <c r="E19">
-        <v>1.038827285939268</v>
+        <v>1.003553041457935</v>
       </c>
       <c r="F19">
-        <v>1.049968428131002</v>
+        <v>1.009663076440977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034574483601335</v>
+        <v>1.043012815006841</v>
       </c>
       <c r="J19">
-        <v>1.034926271139549</v>
+        <v>1.013967909487681</v>
       </c>
       <c r="K19">
-        <v>1.036740552086915</v>
+        <v>1.02267647745044</v>
       </c>
       <c r="L19">
-        <v>1.042127264903448</v>
+        <v>1.017246509525344</v>
       </c>
       <c r="M19">
-        <v>1.053230937906936</v>
+        <v>1.023253411342392</v>
       </c>
       <c r="N19">
-        <v>1.036395985152269</v>
+        <v>1.015407860222898</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028452417232058</v>
+        <v>0.9846778412542906</v>
       </c>
       <c r="D20">
-        <v>1.033157682404727</v>
+        <v>1.007693804544925</v>
       </c>
       <c r="E20">
-        <v>1.038507509053184</v>
+        <v>1.001977240691476</v>
       </c>
       <c r="F20">
-        <v>1.049596589318953</v>
+        <v>1.007839552793043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034495601250994</v>
+        <v>1.04241762905034</v>
       </c>
       <c r="J20">
-        <v>1.034699776397789</v>
+        <v>1.012812456931354</v>
       </c>
       <c r="K20">
-        <v>1.036541182616526</v>
+        <v>1.021602703450818</v>
       </c>
       <c r="L20">
-        <v>1.041872312880392</v>
+        <v>1.015985411578637</v>
       </c>
       <c r="M20">
-        <v>1.052923306877223</v>
+        <v>1.021745939720268</v>
       </c>
       <c r="N20">
-        <v>1.036169168761997</v>
+        <v>1.014250766791409</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027313814991698</v>
+        <v>0.9785517041965891</v>
       </c>
       <c r="D21">
-        <v>1.032297689814728</v>
+        <v>1.003108224430982</v>
       </c>
       <c r="E21">
-        <v>1.037468548762601</v>
+        <v>0.9967578392791423</v>
       </c>
       <c r="F21">
-        <v>1.048388467292312</v>
+        <v>1.001797792945089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034236682013898</v>
+        <v>1.040423463375766</v>
       </c>
       <c r="J21">
-        <v>1.033962773115104</v>
+        <v>1.008974370122015</v>
       </c>
       <c r="K21">
-        <v>1.035891661179382</v>
+        <v>1.018030948852482</v>
       </c>
       <c r="L21">
-        <v>1.041043230091883</v>
+        <v>1.011800896829509</v>
       </c>
       <c r="M21">
-        <v>1.051923102470476</v>
+        <v>1.016745185448018</v>
       </c>
       <c r="N21">
-        <v>1.035431118850115</v>
+        <v>1.010407229458566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026598041026923</v>
+        <v>0.9745985309058913</v>
       </c>
       <c r="D22">
-        <v>1.031756654498414</v>
+        <v>1.000152002041329</v>
       </c>
       <c r="E22">
-        <v>1.036815826195907</v>
+        <v>0.9933984459775052</v>
       </c>
       <c r="F22">
-        <v>1.04762945918823</v>
+        <v>0.99790754780652</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03407200166572</v>
+        <v>1.039122573077209</v>
       </c>
       <c r="J22">
-        <v>1.033498896069976</v>
+        <v>1.006495571682601</v>
       </c>
       <c r="K22">
-        <v>1.035482247829924</v>
+        <v>1.015720448342902</v>
       </c>
       <c r="L22">
-        <v>1.040521794819213</v>
+        <v>1.009101825207244</v>
       </c>
       <c r="M22">
-        <v>1.05129418575137</v>
+        <v>1.013520570862586</v>
       </c>
       <c r="N22">
-        <v>1.034966583046375</v>
+        <v>1.007924910841046</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026977475855501</v>
+        <v>0.9767041544661504</v>
       </c>
       <c r="D23">
-        <v>1.032043497976542</v>
+        <v>1.001726307047019</v>
       </c>
       <c r="E23">
-        <v>1.037161797954008</v>
+        <v>0.9951869569926514</v>
       </c>
       <c r="F23">
-        <v>1.048031768043997</v>
+        <v>0.9999788343646839</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034159480625158</v>
+        <v>1.039816778814814</v>
       </c>
       <c r="J23">
-        <v>1.033744852743281</v>
+        <v>1.00781605982925</v>
       </c>
       <c r="K23">
-        <v>1.035699383365131</v>
+        <v>1.016951622296121</v>
       </c>
       <c r="L23">
-        <v>1.040798232354895</v>
+        <v>1.010539330108574</v>
       </c>
       <c r="M23">
-        <v>1.051627590858465</v>
+        <v>1.015237889344402</v>
       </c>
       <c r="N23">
-        <v>1.035212889006368</v>
+        <v>1.009247274232325</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028471507917967</v>
+        <v>0.9847789044034923</v>
       </c>
       <c r="D24">
-        <v>1.033172094743953</v>
+        <v>1.00776949264029</v>
       </c>
       <c r="E24">
-        <v>1.038524936013662</v>
+        <v>1.002063483513666</v>
       </c>
       <c r="F24">
-        <v>1.04961685355168</v>
+        <v>1.007939359928365</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034499910040581</v>
+        <v>1.042450288577919</v>
       </c>
       <c r="J24">
-        <v>1.034712123954848</v>
+        <v>1.012875735137879</v>
       </c>
       <c r="K24">
-        <v>1.036552054369698</v>
+        <v>1.021661527378506</v>
       </c>
       <c r="L24">
-        <v>1.041886209852717</v>
+        <v>1.01605445871432</v>
       </c>
       <c r="M24">
-        <v>1.05294007458337</v>
+        <v>1.021828471419704</v>
       </c>
       <c r="N24">
-        <v>1.036181533854003</v>
+        <v>1.014314134860246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030205727466834</v>
+        <v>0.9937411074958081</v>
       </c>
       <c r="D25">
-        <v>1.034480330311816</v>
+        <v>1.014485485611354</v>
       </c>
       <c r="E25">
-        <v>1.040108995611398</v>
+        <v>1.009729559996174</v>
       </c>
       <c r="F25">
-        <v>1.051458795217254</v>
+        <v>1.016808196243736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034886727534127</v>
+        <v>1.045312297385865</v>
       </c>
       <c r="J25">
-        <v>1.035832424369114</v>
+        <v>1.018480959997227</v>
       </c>
       <c r="K25">
-        <v>1.037537012725857</v>
+        <v>1.02686301903849</v>
       </c>
       <c r="L25">
-        <v>1.043148044239159</v>
+        <v>1.022178691571394</v>
       </c>
       <c r="M25">
-        <v>1.054462913069983</v>
+        <v>1.029151071927888</v>
       </c>
       <c r="N25">
-        <v>1.037303425223358</v>
+        <v>1.019927319781822</v>
       </c>
     </row>
   </sheetData>
